--- a/개선아이디어_Template_v1.xlsx
+++ b/개선아이디어_Template_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\소코\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0219F103-2AF2-4DF0-9C9A-96867FE143BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E402B0-4124-4AA7-808C-34841C9EDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA100164-1E71-418A-959D-44448BCAE4E1}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{CA100164-1E71-418A-959D-44448BCAE4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>조번호</t>
   </si>
@@ -102,7 +111,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 블록 change 기능(특정 버튼을 누르면 내려오는 블록을 하나 교체 할 수 있음)</t>
+    <t>블록 hold 기능 (버튼을 누르면 내려오는 블록을 저장해 두었다가 원하는 때에 사용할 수 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 화면과 오른쪽 화면 연동 (가장 왼쪽의 화면에서 왼쪽으로 이동하면 가장 오른쪽 화면으로 이어짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑에서 블록 상승 (5줄이나 10줄을 맞추면 밑에서 블록 한 줄씩 올라옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트 드롭 기능 (버튼을 누르면 블록이 기존보다 좀 더 빠르게 내려오게 함)</t>
+  </si>
+  <si>
+    <t>배경음악, 효과음 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -498,13 +522,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,58 +618,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,46 +1001,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:I41"/>
+  <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="84.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="90.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="30" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1050,7 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -998,216 +1060,230 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="36"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="31">
-        <f>SUM(E7:E11)</f>
+      <c r="G7" s="40">
+        <f>SUM(E7:E12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="29"/>
+      <c r="C8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="30"/>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="9"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="30"/>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="31"/>
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="32"/>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="14"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="2:7" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="14"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C19"/>
+    <row r="19" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20"/>
+    <row r="20" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21"/>
+    <row r="21" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G7:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
